--- a/synthèse.xlsx
+++ b/synthèse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\portofolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D785679-8856-441B-805C-31288F4586C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1715D31E-E205-4E66-A381-3D5DC8BE8944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -228,9 +228,6 @@
 - Présentation générale de la classe SIO2
 - Trombinoscope avec photos, noms et prénoms des élèves
 - Liens vers les portfolios personnels des élèves</t>
-  </si>
-  <si>
-    <t>10/2025 - 12/2025</t>
   </si>
   <si>
     <t>09/2023 - 04/2025 (continu)</t>
@@ -758,63 +755,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -850,6 +790,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,8 +1192,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1215,56 +1212,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="21" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="52"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1276,22 +1273,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1314,8 +1311,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1328,7 +1325,7 @@
       <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="33" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1371,16 +1368,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1418,18 +1415,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="44"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="25"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1467,18 +1464,18 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="38"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="19"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1516,18 +1513,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="49"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="30"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1565,18 +1562,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="49"/>
+      <c r="B12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="30"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1614,18 +1611,18 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="30"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1663,14 +1660,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="38"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="19"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1708,14 +1705,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="38"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="19"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1753,14 +1750,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="38"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="19"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1798,14 +1795,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="38"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="19"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1843,14 +1840,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="38"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="19"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1888,16 +1885,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1935,18 +1932,18 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1984,18 +1981,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="25"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2033,18 +2030,18 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="38"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="19"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2082,18 +2079,18 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="38"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="19"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2131,14 +2128,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="38"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="19"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2176,14 +2173,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="38"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="19"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2221,14 +2218,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="38"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="19"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2266,16 +2263,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2313,18 +2310,18 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="44"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="25"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2362,18 +2359,18 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="49"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="30"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2414,15 +2411,15 @@
       <c r="A30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2460,16 +2457,16 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="49"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="30"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2507,14 +2504,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="38"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="19"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2552,14 +2549,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="38"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="19"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2597,14 +2594,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2734,16 +2731,16 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2754,15 +2751,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD9E8A81A97D6341BA55AD1ED2794B96" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="65aaf3f3ad89f2729e5b3274dbe8e49c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c853f884-0cc4-4cde-bf7e-a465853ebc9e" xmlns:ns3="701ac5cc-8fc6-465e-a855-3657eb8dff64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109790016863ba517ccf435438514acc" ns2:_="" ns3:_="">
     <xsd:import namespace="c853f884-0cc4-4cde-bf7e-a465853ebc9e"/>
@@ -2985,15 +2973,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC707F9-0BF2-4CA5-A372-3B0ED0DC7E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53FA80AC-853E-4601-85E3-4072DBF73006}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3010,4 +2999,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC707F9-0BF2-4CA5-A372-3B0ED0DC7E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>